--- a/mcu-model-data2.xlsx
+++ b/mcu-model-data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365ust-my.sharepoint.com/personal/02021053_office_ust_ac_kr/Documents/Mid Sweden PhD/Projects/MCU-Comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\101\my_source\acustic-emission-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3A0A66BC-3B1D-4E01-AE69-1EB60F073990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D11E1F-EE53-4E68-87EF-DDA9F3407685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu-model-data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>mcu</t>
   </si>
@@ -100,88 +100,37 @@
     <t>nucleo_l432kc</t>
   </si>
   <si>
-    <t>NOT POSSIBLE</t>
-  </si>
-  <si>
-    <t>DUE TO</t>
-  </si>
-  <si>
-    <t>LIMITED</t>
-  </si>
-  <si>
-    <t>FLASH SIZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND </t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>REQ RAM : &gt; 150KB</t>
-  </si>
-  <si>
-    <t>HAS 64KB</t>
-  </si>
-  <si>
     <t>seeduino_xiao</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> REQ RAM : &gt; 150KB</t>
-  </si>
-  <si>
-    <t>HAS 32KB</t>
-  </si>
-  <si>
-    <t>REQ RAM : &gt; 40KB</t>
-  </si>
-  <si>
     <t>nucleo_f401re</t>
   </si>
   <si>
-    <t>HAS 96KB</t>
-  </si>
-  <si>
     <t>rpi_pico</t>
   </si>
   <si>
     <t>esp_32s</t>
   </si>
   <si>
-    <t>DEPLOYED</t>
-  </si>
-  <si>
-    <t>BUT</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>WORK</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>REMAINS</t>
-  </si>
-  <si>
-    <t>UNSOLVED</t>
-  </si>
-  <si>
-    <t>DIDN'T</t>
+    <t>NOT POSSIBLE DUE TO FLASH OR RAM SIZE: REQ RAM &gt; 150 KB , HAS 64KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT POSSIBLE DUE TO FLASH OR RAM SIZE: REQ RAM &gt; 150 KB , HAS 32KB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT POSSIBLE DUE TO FLASH OR RAM SIZE: REQ RAM &gt; 40 KB , HAS 32KB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT POSSIBLE DUE TO FLASH OR RAM SIZE: REQ RAM &gt; 150 KB , HAS 96KB </t>
+  </si>
+  <si>
+    <t>MODEL DEPLOYED, BUT ERROR OCCURS DURING INFERENCE, COULDN'T SOLVE THE PROBLEM YET.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -713,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,10 +688,19 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,11 +1064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,58 +1091,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1199,49 +1157,49 @@
         <v>4019</v>
       </c>
       <c r="D2" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E2" s="7">
-        <v>2.6185650378465701E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F2" s="7">
-        <v>0.97733330726623502</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G2" s="7">
-        <v>0.14419926702976199</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H2" s="7">
-        <v>0.96870000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I2" s="7">
-        <v>18340</v>
+        <v>18164</v>
       </c>
       <c r="J2" s="7">
-        <v>8868</v>
+        <v>9012</v>
       </c>
       <c r="K2" s="7">
-        <v>177472</v>
+        <v>171808</v>
       </c>
       <c r="L2" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="7">
-        <v>63176</v>
+        <v>63496</v>
       </c>
       <c r="N2" s="7">
         <v>24</v>
       </c>
       <c r="O2" s="7">
-        <v>991.57</v>
+        <v>1083.9000000000001</v>
       </c>
       <c r="P2" s="7">
-        <v>18.649999999999999</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="Q2" s="7">
-        <v>1037</v>
+        <v>1163</v>
       </c>
       <c r="R2" s="7">
-        <v>935</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1255,49 +1213,49 @@
         <v>4019</v>
       </c>
       <c r="D3" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E3" s="7">
-        <v>2.618565037847E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F3" s="7">
-        <v>0.97733330726624001</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G3" s="7">
-        <v>0.14419926702975999</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H3" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="I3" s="7">
-        <v>7024</v>
+        <v>7048</v>
       </c>
       <c r="J3" s="7">
-        <v>6040</v>
+        <v>6328</v>
       </c>
       <c r="K3" s="7">
-        <v>169328</v>
+        <v>164312</v>
       </c>
       <c r="L3" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="7">
-        <v>60440</v>
+        <v>60712</v>
       </c>
       <c r="N3" s="7">
         <v>23</v>
       </c>
       <c r="O3" s="7">
-        <v>2799.92</v>
+        <v>2834.05</v>
       </c>
       <c r="P3" s="7">
-        <v>22.57</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="Q3" s="7">
-        <v>3518</v>
+        <v>2866</v>
       </c>
       <c r="R3" s="7">
-        <v>2697</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1314,16 +1272,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F4" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G4" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I4" s="2">
         <v>219920</v>
@@ -1370,16 +1328,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G5" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I5" s="2">
         <v>62736</v>
@@ -1423,16 +1381,16 @@
         <v>12211</v>
       </c>
       <c r="D6" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E6" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F6" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G6" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H6" s="8">
         <v>0.98870000000000002</v>
@@ -1479,16 +1437,16 @@
         <v>12211</v>
       </c>
       <c r="D7" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E7" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F7" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G7" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H7" s="8">
         <v>0.98799999999999999</v>
@@ -1535,49 +1493,49 @@
         <v>4019</v>
       </c>
       <c r="D8" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E8" s="7">
-        <v>2.6185650378465701E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F8" s="7">
-        <v>0.97733330726623502</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G8" s="7">
-        <v>0.14419926702976199</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>0.96870000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I8" s="7">
-        <v>18340</v>
+        <v>18164</v>
       </c>
       <c r="J8" s="7">
-        <v>8828</v>
+        <v>8960</v>
       </c>
       <c r="K8" s="7">
-        <v>77692</v>
+        <v>75548</v>
       </c>
       <c r="L8" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>18308</v>
+        <v>18672</v>
       </c>
       <c r="N8" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="7">
-        <v>1412.28</v>
+        <v>1535.3</v>
       </c>
       <c r="P8" s="7">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="Q8" s="7">
-        <v>1425</v>
+        <v>1548</v>
       </c>
       <c r="R8" s="7">
-        <v>1411</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1591,49 +1549,49 @@
         <v>4019</v>
       </c>
       <c r="D9" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E9" s="7">
-        <v>2.618565037847E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F9" s="7">
-        <v>0.97733330726624001</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G9" s="7">
-        <v>0.14419926702975999</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H9" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="I9" s="7">
-        <v>7024</v>
+        <v>7048</v>
       </c>
       <c r="J9" s="7">
-        <v>5996</v>
+        <v>6284</v>
       </c>
       <c r="K9" s="7">
-        <v>68908</v>
+        <v>66996</v>
       </c>
       <c r="L9" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
-        <v>15548</v>
+        <v>15816</v>
       </c>
       <c r="N9" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="7">
-        <v>2214.9699999999998</v>
+        <v>2300.81</v>
       </c>
       <c r="P9" s="7">
-        <v>0.72</v>
+        <v>1.48</v>
       </c>
       <c r="Q9" s="7">
-        <v>2238</v>
+        <v>2315</v>
       </c>
       <c r="R9" s="7">
-        <v>2214</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1650,47 +1608,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F10" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G10" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I10" s="2">
         <v>219920</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1706,16 +1648,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F11" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G11" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I11" s="2">
         <v>62736</v>
@@ -1759,16 +1701,16 @@
         <v>12211</v>
       </c>
       <c r="D12" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E12" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F12" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G12" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H12" s="8">
         <v>0.98870000000000002</v>
@@ -1815,16 +1757,16 @@
         <v>12211</v>
       </c>
       <c r="D13" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E13" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F13" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G13" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H13" s="8">
         <v>0.98799999999999999</v>
@@ -1862,7 +1804,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -1871,54 +1813,54 @@
         <v>4019</v>
       </c>
       <c r="D14" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E14" s="7">
-        <v>2.6185650378465701E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F14" s="7">
-        <v>0.97733330726623502</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G14" s="7">
-        <v>0.14419926702976199</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>0.96870000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I14" s="7">
-        <v>18340</v>
+        <v>18164</v>
       </c>
       <c r="J14" s="7">
-        <v>8828</v>
+        <v>8964</v>
       </c>
       <c r="K14" s="7">
-        <v>98028</v>
+        <v>96324</v>
       </c>
       <c r="L14" s="7">
-        <v>37</v>
-      </c>
-      <c r="M14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>36</v>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>32160.86</v>
+        <v>32438.66</v>
       </c>
       <c r="P14" s="7">
-        <v>2.08</v>
+        <v>2.77</v>
       </c>
       <c r="Q14" s="7">
-        <v>31172</v>
+        <v>32449</v>
       </c>
       <c r="R14" s="7">
-        <v>32154</v>
+        <v>32432</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>20</v>
@@ -1927,54 +1869,54 @@
         <v>4019</v>
       </c>
       <c r="D15" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E15" s="7">
-        <v>2.618565037847E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F15" s="7">
-        <v>0.97733330726624001</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G15" s="7">
-        <v>0.14419926702975999</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H15" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="I15" s="7">
-        <v>7024</v>
+        <v>7048</v>
       </c>
       <c r="J15" s="7">
-        <v>6000</v>
+        <v>6284</v>
       </c>
       <c r="K15" s="7">
-        <v>86116</v>
+        <v>87756</v>
       </c>
       <c r="L15" s="7">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>20384.150000000001</v>
+        <v>20868.580000000002</v>
       </c>
       <c r="P15" s="7">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" s="7">
-        <v>20392</v>
+        <v>20875</v>
       </c>
       <c r="R15" s="7">
-        <v>20378</v>
+        <v>20862</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -1986,51 +1928,35 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F16" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G16" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H16" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I16" s="2">
         <v>219920</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -2042,51 +1968,35 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F17" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G17" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I17" s="2">
         <v>62736</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>23</v>
@@ -2095,16 +2005,16 @@
         <v>12211</v>
       </c>
       <c r="D18" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E18" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F18" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G18" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H18" s="8">
         <v>0.98870000000000002</v>
@@ -2112,37 +2022,21 @@
       <c r="I18" s="8">
         <v>52432</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>24</v>
@@ -2151,16 +2045,16 @@
         <v>12211</v>
       </c>
       <c r="D19" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E19" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F19" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G19" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H19" s="8">
         <v>0.98799999999999999</v>
@@ -2177,11 +2071,11 @@
       <c r="L19" s="8">
         <v>43</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>36</v>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
       </c>
       <c r="O19" s="8">
         <v>185580.59</v>
@@ -2198,7 +2092,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>19</v>
@@ -2207,54 +2101,54 @@
         <v>4019</v>
       </c>
       <c r="D20" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E20" s="7">
-        <v>2.6185650378465701E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F20" s="7">
-        <v>0.97733330726623502</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G20" s="7">
-        <v>0.14419926702976199</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H20" s="7">
-        <v>0.96870000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I20" s="7">
-        <v>18340</v>
+        <v>18164</v>
       </c>
       <c r="J20" s="7">
-        <v>8816</v>
+        <v>8964</v>
       </c>
       <c r="K20" s="7">
-        <v>74548</v>
+        <v>71948</v>
       </c>
       <c r="L20" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>18240</v>
+        <v>18588</v>
       </c>
       <c r="N20" s="7">
         <v>18</v>
       </c>
       <c r="O20" s="7">
-        <v>1251.3399999999999</v>
+        <v>1350.44</v>
       </c>
       <c r="P20" s="7">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="Q20" s="7">
-        <v>1258</v>
+        <v>1357</v>
       </c>
       <c r="R20" s="7">
-        <v>1251</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>20</v>
@@ -2263,54 +2157,54 @@
         <v>4019</v>
       </c>
       <c r="D21" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E21" s="7">
-        <v>2.618565037847E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F21" s="7">
-        <v>0.97733330726624001</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G21" s="7">
-        <v>0.14419926702975999</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H21" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="I21" s="7">
-        <v>7024</v>
+        <v>7048</v>
       </c>
       <c r="J21" s="7">
-        <v>6000</v>
+        <v>6284</v>
       </c>
       <c r="K21" s="7">
-        <v>65756</v>
+        <v>63396</v>
       </c>
       <c r="L21" s="7">
         <v>12</v>
       </c>
       <c r="M21" s="7">
-        <v>18312</v>
+        <v>16448</v>
       </c>
       <c r="N21" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O21" s="7">
-        <v>2037.93</v>
+        <v>2106.13</v>
       </c>
       <c r="P21" s="7">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="Q21" s="7">
-        <v>2044</v>
+        <v>2112</v>
       </c>
       <c r="R21" s="7">
-        <v>2037</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -2322,51 +2216,35 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F22" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G22" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H22" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I22" s="2">
         <v>219920</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -2378,16 +2256,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F23" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G23" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H23" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I23" s="2">
         <v>62736</v>
@@ -2422,7 +2300,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>23</v>
@@ -2431,16 +2309,16 @@
         <v>12211</v>
       </c>
       <c r="D24" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E24" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F24" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G24" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H24" s="8">
         <v>0.98870000000000002</v>
@@ -2478,7 +2356,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
@@ -2487,16 +2365,16 @@
         <v>12211</v>
       </c>
       <c r="D25" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E25" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F25" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G25" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H25" s="8">
         <v>0.98799999999999999</v>
@@ -2534,7 +2412,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>19</v>
@@ -2543,54 +2421,54 @@
         <v>4019</v>
       </c>
       <c r="D26" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E26" s="7">
-        <v>2.6185650378465701E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F26" s="7">
-        <v>0.97733330726623502</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G26" s="7">
-        <v>0.14419926702976199</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H26" s="7">
-        <v>0.96870000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I26" s="7">
-        <v>18340</v>
+        <v>18164</v>
       </c>
       <c r="J26" s="7">
-        <v>8680</v>
+        <v>8963</v>
       </c>
       <c r="K26" s="7">
-        <v>274944</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>36</v>
+        <v>153870</v>
+      </c>
+      <c r="L26" s="11">
+        <v>7</v>
+      </c>
+      <c r="M26" s="11">
+        <v>60460</v>
+      </c>
+      <c r="N26" s="11">
+        <v>22</v>
       </c>
       <c r="O26" s="7">
-        <v>7441.3696</v>
+        <v>11867.22</v>
       </c>
       <c r="P26" s="7">
-        <v>40.767299999999999</v>
+        <v>23.05</v>
       </c>
       <c r="Q26" s="7">
-        <v>8631</v>
+        <v>12225</v>
       </c>
       <c r="R26" s="7">
-        <v>7351</v>
+        <v>11799</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>20</v>
@@ -2599,54 +2477,54 @@
         <v>4019</v>
       </c>
       <c r="D27" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E27" s="7">
-        <v>2.618565037847E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F27" s="7">
-        <v>0.97733330726624001</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G27" s="7">
-        <v>0.14419926702975999</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H27" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="I27" s="7">
-        <v>7024</v>
+        <v>7048</v>
       </c>
       <c r="J27" s="7">
-        <v>5848</v>
+        <v>6295</v>
       </c>
       <c r="K27" s="7">
-        <v>265216</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>36</v>
+        <v>145660</v>
+      </c>
+      <c r="L27" s="11">
+        <v>6</v>
+      </c>
+      <c r="M27" s="11">
+        <v>58320</v>
+      </c>
+      <c r="N27" s="11">
+        <v>21</v>
       </c>
       <c r="O27" s="7">
-        <v>3491.7595000000001</v>
+        <v>7706.75</v>
       </c>
       <c r="P27" s="7">
-        <v>47.711599999999997</v>
+        <v>18.47</v>
       </c>
       <c r="Q27" s="7">
-        <v>3886</v>
+        <v>8043</v>
       </c>
       <c r="R27" s="7">
-        <v>3394</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -2658,16 +2536,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F28" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G28" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H28" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I28" s="2">
         <v>219920</v>
@@ -2676,16 +2554,16 @@
         <v>146312</v>
       </c>
       <c r="K28" s="2">
-        <v>726016</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>36</v>
+        <v>372485</v>
+      </c>
+      <c r="L28" s="13">
+        <v>17</v>
+      </c>
+      <c r="M28" s="13">
+        <v>201032</v>
+      </c>
+      <c r="N28" s="13">
+        <v>74</v>
       </c>
       <c r="O28" s="2">
         <v>3236171</v>
@@ -2702,7 +2580,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -2714,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F29" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G29" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H29" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I29" s="2">
         <v>62736</v>
@@ -2732,16 +2610,16 @@
         <v>38456</v>
       </c>
       <c r="K29" s="2">
-        <v>424448</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>36</v>
+        <v>218261</v>
+      </c>
+      <c r="L29" s="13">
+        <v>10</v>
+      </c>
+      <c r="M29" s="13">
+        <v>93588</v>
+      </c>
+      <c r="N29" s="13">
+        <v>34</v>
       </c>
       <c r="O29" s="2">
         <v>589597.5</v>
@@ -2758,7 +2636,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>23</v>
@@ -2767,16 +2645,16 @@
         <v>12211</v>
       </c>
       <c r="D30" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E30" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F30" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G30" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H30" s="8">
         <v>0.98870000000000002</v>
@@ -2788,16 +2666,16 @@
         <v>49128</v>
       </c>
       <c r="K30" s="8">
-        <v>390656</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>36</v>
+        <v>204997</v>
+      </c>
+      <c r="L30" s="12">
+        <v>9</v>
+      </c>
+      <c r="M30" s="12">
+        <v>124232</v>
+      </c>
+      <c r="N30" s="12">
+        <v>45</v>
       </c>
       <c r="O30" s="8">
         <v>183083.5</v>
@@ -2814,7 +2692,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>24</v>
@@ -2823,16 +2701,16 @@
         <v>12211</v>
       </c>
       <c r="D31" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E31" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F31" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G31" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H31" s="8">
         <v>0.98799999999999999</v>
@@ -2844,16 +2722,16 @@
         <v>13288</v>
       </c>
       <c r="K31" s="8">
-        <v>332288</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>36</v>
+        <v>172237</v>
+      </c>
+      <c r="L31" s="12">
+        <v>8</v>
+      </c>
+      <c r="M31" s="12">
+        <v>67988</v>
+      </c>
+      <c r="N31" s="12">
+        <v>25</v>
       </c>
       <c r="O31" s="8">
         <v>53747.300799999997</v>
@@ -2870,7 +2748,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>19</v>
@@ -2879,22 +2757,22 @@
         <v>4019</v>
       </c>
       <c r="D32" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E32" s="7">
-        <v>2.6185650378465701E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F32" s="7">
-        <v>0.97733330726623502</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G32" s="7">
-        <v>0.14419926702976199</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H32" s="7">
-        <v>0.96870000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="I32" s="7">
-        <v>18340</v>
+        <v>18164</v>
       </c>
       <c r="J32" s="7">
         <v>8858</v>
@@ -2926,7 +2804,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>20</v>
@@ -2935,22 +2813,22 @@
         <v>4019</v>
       </c>
       <c r="D33" s="7">
-        <v>0.99575001001357999</v>
+        <v>0.99041664600372303</v>
       </c>
       <c r="E33" s="7">
-        <v>2.618565037847E-2</v>
+        <v>5.16014918684959E-2</v>
       </c>
       <c r="F33" s="7">
-        <v>0.97733330726624001</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="G33" s="7">
-        <v>0.14419926702975999</v>
+        <v>7.6950080692768097E-2</v>
       </c>
       <c r="H33" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="I33" s="7">
-        <v>7024</v>
+        <v>7048</v>
       </c>
       <c r="J33" s="7">
         <v>6008</v>
@@ -2982,7 +2860,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -2994,49 +2872,35 @@
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F34" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G34" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H34" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I34" s="2">
         <v>219920</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" s="9"/>
+      <c r="J34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
@@ -3048,16 +2912,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>1.3645575381815401E-4</v>
+        <v>1.36456E-4</v>
       </c>
       <c r="F35" s="2">
-        <v>0.99599999189376798</v>
+        <v>0.995999992</v>
       </c>
       <c r="G35" s="2">
-        <v>2.53082308918238E-2</v>
+        <v>2.5308231E-2</v>
       </c>
       <c r="H35" s="2">
-        <v>0.99266666666666703</v>
+        <v>0.99266666699999995</v>
       </c>
       <c r="I35" s="2">
         <v>62736</v>
@@ -3092,7 +2956,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>23</v>
@@ -3101,16 +2965,16 @@
         <v>12211</v>
       </c>
       <c r="D36" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E36" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F36" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G36" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H36" s="8">
         <v>0.98870000000000002</v>
@@ -3148,7 +3012,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>24</v>
@@ -3157,16 +3021,16 @@
         <v>12211</v>
       </c>
       <c r="D37" s="8">
-        <v>0.99741667509079002</v>
+        <v>0.99741667499999997</v>
       </c>
       <c r="E37" s="8">
-        <v>1.26601792871952E-2</v>
+        <v>1.2660179000000001E-2</v>
       </c>
       <c r="F37" s="8">
-        <v>0.98866665363311801</v>
+        <v>0.98866665399999998</v>
       </c>
       <c r="G37" s="8">
-        <v>5.8005411177873598E-2</v>
+        <v>5.8005411E-2</v>
       </c>
       <c r="H37" s="8">
         <v>0.98799999999999999</v>
@@ -3203,6 +3067,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J10:R10"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="J34:R34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mcu-model-data2.xlsx
+++ b/mcu-model-data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\101\my_source\acustic-emission-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D11E1F-EE53-4E68-87EF-DDA9F3407685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC4DF86-17D5-4BE6-B7CD-FDF131A4D8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1095" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu-model-data" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,15 +692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,27 +1058,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -2444,13 +2437,13 @@
       <c r="K26" s="7">
         <v>153870</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="7">
         <v>7</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="7">
         <v>60460</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="7">
         <v>22</v>
       </c>
       <c r="O26" s="7">
@@ -2500,13 +2493,13 @@
       <c r="K27" s="7">
         <v>145660</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="7">
         <v>6</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="7">
         <v>58320</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="7">
         <v>21</v>
       </c>
       <c r="O27" s="7">
@@ -2556,13 +2549,13 @@
       <c r="K28" s="2">
         <v>372485</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="2">
         <v>17</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="2">
         <v>201032</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="2">
         <v>74</v>
       </c>
       <c r="O28" s="2">
@@ -2612,13 +2605,13 @@
       <c r="K29" s="2">
         <v>218261</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="2">
         <v>10</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="2">
         <v>93588</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="2">
         <v>34</v>
       </c>
       <c r="O29" s="2">
@@ -2668,13 +2661,13 @@
       <c r="K30" s="8">
         <v>204997</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="8">
         <v>9</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="8">
         <v>124232</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="8">
         <v>45</v>
       </c>
       <c r="O30" s="8">
@@ -2724,13 +2717,13 @@
       <c r="K31" s="8">
         <v>172237</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="8">
         <v>8</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="8">
         <v>67988</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="8">
         <v>25</v>
       </c>
       <c r="O31" s="8">
@@ -3068,12 +3061,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J34:R34"/>
     <mergeCell ref="J10:R10"/>
     <mergeCell ref="J16:R16"/>
     <mergeCell ref="J17:R17"/>
     <mergeCell ref="J18:R18"/>
     <mergeCell ref="J22:R22"/>
-    <mergeCell ref="J34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
